--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_4_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2857894.355794642</v>
+        <v>2857894.35579463</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800643</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800643</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.3405017747</v>
+        <v>3940022.790763956</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.3405017747</v>
+        <v>3940022.790763956</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783272</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C5" t="n">
         <v>449.4745782429939</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
       </c>
       <c r="V8" t="n">
-        <v>628.4626798738476</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W8" t="n">
         <v>638.3734759809475</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D14" t="n">
-        <v>408.9508114468735</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
         <v>404.3632896068686</v>
@@ -1788,49 +1788,49 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>359.620476775678</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
         <v>408.192915058951</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2019,55 +2019,55 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U20" t="n">
         <v>648.751427201877</v>
@@ -2149,7 +2149,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W20" t="n">
-        <v>636.9851316879713</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X20" t="n">
         <v>592.2818334606677</v>
@@ -2216,7 +2216,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F23" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G23" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201978</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2499,43 +2499,43 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.999312955469</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428884</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557397443</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067631</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287079064</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054527399</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>346.4706963214706</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.008821068549</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118755</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017715</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241667184</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>638.373475980842</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605622</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326827009</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="30">
@@ -2876,28 +2876,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.5565566462211</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C30" t="n">
-        <v>361.0999124454138</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D30" t="n">
-        <v>347.9376868975971</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E30" t="n">
-        <v>342.6720972218071</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F30" t="n">
-        <v>339.6362423377714</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G30" t="n">
-        <v>322.5970075730351</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H30" t="n">
-        <v>301.8178796391458</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I30" t="n">
-        <v>108.9296877780355</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.1929150588455</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T30" t="n">
-        <v>392.6911708777857</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U30" t="n">
         <v>400.0036144771679</v>
@@ -2939,10 +2939,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>430.8394429542424</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X30" t="n">
-        <v>419.862739445282</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y30" t="n">
         <v>399.3913927661343</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W32" t="n">
-        <v>636.9851316879713</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="33">
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E35" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F35" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3429,61 +3429,61 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3571,7 +3571,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
-        <v>636.9851316879713</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
         <v>592.2818334606677</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>57.56516074743381</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>636.9851316879713</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
         <v>592.2818334606677</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>647.3630829089011</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651425</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523947</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396619</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,37 +4470,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
         <v>457.4949902104935</v>
@@ -4524,22 +4524,22 @@
         <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4573,52 +4573,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>1936.671378010444</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010445</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523947</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396619</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4734,16 +4734,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893197</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893197</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
         <v>426.6131206966359</v>
@@ -4807,43 +4807,43 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396619</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
         <v>4826.598134791557</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4971,19 +4971,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>438.4639669707671</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5044,55 +5044,55 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>2332.601309399844</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M11" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N11" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O11" t="n">
-        <v>5124.20357278602</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P11" t="n">
-        <v>5960.070900883434</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>7026.584963222534</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5208,40 +5208,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
         <v>1711.662994324041</v>
@@ -5281,55 +5281,55 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>2814.780508913348</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N14" t="n">
-        <v>3379.82357278602</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.978455726764</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5518,34 +5518,34 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L17" t="n">
-        <v>2595.354589746545</v>
+        <v>3509.801978263786</v>
       </c>
       <c r="M17" t="n">
-        <v>3077.533789260047</v>
+        <v>3991.981177777289</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396619</v>
+        <v>4557.024241649961</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337363</v>
+        <v>5467.179124590705</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
         <v>6684.746993155883</v>
@@ -5624,19 +5624,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W18" t="n">
         <v>3503.082427021609</v>
@@ -5655,16 +5655,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5758,43 +5758,43 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1101.367131735718</v>
+        <v>1091.030813794195</v>
       </c>
       <c r="K20" t="n">
-        <v>1841.010275303557</v>
+        <v>1830.673957362034</v>
       </c>
       <c r="L20" t="n">
-        <v>2758.60299862014</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M20" t="n">
-        <v>3240.782198133642</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159623</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
         <v>4181.776441881509</v>
@@ -5864,16 +5864,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U21" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V21" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W21" t="n">
         <v>3503.082427021609</v>
@@ -5919,40 +5919,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.75934754623</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048256</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351438</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071773</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361343872</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003234322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2631.383042915616</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396619</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337363</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048.000000000101</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183278</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464105</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922543018</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818953</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908905</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665806</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430648</v>
       </c>
     </row>
     <row r="24">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6238,46 +6238,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>2595.354589746545</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M26" t="n">
-        <v>3077.533789260047</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396619</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337363</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6393,37 +6393,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546983</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049116</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352404</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859072845</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361355662</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G29" t="n">
-        <v>490.9304003247178</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6469,52 +6469,52 @@
         <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K29" t="n">
-        <v>2049.12665539136</v>
+        <v>2046.117175397607</v>
       </c>
       <c r="L29" t="n">
-        <v>2966.719378707943</v>
+        <v>2963.70989871419</v>
       </c>
       <c r="M29" t="n">
-        <v>3448.898578221445</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N29" t="n">
-        <v>4013.941642094117</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O29" t="n">
-        <v>4924.096525034862</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183286</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464219</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543238</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.19576681928</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909338</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666346</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431295</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235157</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647926659</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939187</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402008</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959497136</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327446277</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876545813</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I30" t="n">
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150262</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213288</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.27078437463</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117594</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215833</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182675</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369267</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250551</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373744</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
-        <v>5157.673230556728</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T30" t="n">
-        <v>4761.015482195327</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U30" t="n">
-        <v>4356.971427167885</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V30" t="n">
-        <v>3938.273783540087</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.08242702065</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649803193</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000544472</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="31">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6703,52 +6703,52 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L32" t="n">
-        <v>2332.601309399844</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M32" t="n">
-        <v>2814.780508913348</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N32" t="n">
-        <v>4235.463726622745</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O32" t="n">
-        <v>5145.618609563488</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P32" t="n">
-        <v>5981.485937660902</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
         <v>3067.029708403252</v>
@@ -6812,16 +6812,16 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
         <v>3503.082427021609</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6867,49 +6867,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -6940,55 +6940,55 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M35" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N35" t="n">
-        <v>4235.463726622745</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O35" t="n">
-        <v>5145.618609563488</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P35" t="n">
-        <v>5981.485937660902</v>
+        <v>5877.044763467824</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7177,46 +7177,46 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>3553.537024987069</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N38" t="n">
-        <v>4118.580088859741</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O38" t="n">
-        <v>5028.734971800485</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
         <v>4181.776441881509</v>
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7341,43 +7341,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>199.1066270176099</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>199.1066270176099</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
         <v>140.96</v>
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2595.354589746545</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3077.533789260047</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396619</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337363</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7578,40 +7578,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7651,55 +7651,55 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010445</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7815,49 +7815,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>713.8352387415304</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>526.93211305776</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>207.1786869636869</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>459.8234496459306</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -8701,25 +8701,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>378.1515460156961</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>198.1081860459405</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>746.2187031047688</v>
+        <v>496.2158265843852</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,34 +9166,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>265.4073538855553</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>291.043472231979</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>419.8640113926995</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N20" t="n">
-        <v>1049.830320356877</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,25 +9649,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>301.7997308240108</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>713.8352387415302</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357657715</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,22 +9886,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>265.4073538855553</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>746.218703104767</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10117,10 +10117,10 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>283.5305021553745</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,16 +10132,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P29" t="n">
-        <v>721.5474740429306</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>864.2829836734595</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>839.6117546116195</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>176.4768357656695</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>864.2829836734595</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>603.2839282494458</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>29.3435855816706</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>496.2158265843852</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -11071,22 +11071,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>265.4073538855553</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512439</v>
+        <v>459.8234496459309</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D14" t="n">
-        <v>1.388344292976228</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23718,7 +23718,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.388344292976512</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F19" t="n">
-        <v>109.1700674243155</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G19" t="n">
         <v>242.4092826775956</v>
@@ -23955,7 +23955,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>2.808139187274691</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24195,7 +24195,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X22" t="n">
         <v>247.4436454301076</v>
@@ -24223,13 +24223,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292877377</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24460,13 +24460,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692966</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.388344291499095</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.533699955480586</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24903,7 +24903,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24985,13 +24985,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="33">
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>131.3616658174982</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C37" t="n">
         <v>272.7252466480447</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25587,13 +25587,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
-        <v>268.0582198167198</v>
+        <v>210.4930590692859</v>
       </c>
       <c r="P40" t="n">
         <v>368.8061924102448</v>
@@ -25620,7 +25620,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
-        <v>82.23085688668112</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y40" t="n">
         <v>287.4653528494624</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
-        <v>368.8061924102448</v>
+        <v>203.5934038668184</v>
       </c>
       <c r="Q43" t="n">
         <v>505.228266425598</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.38834429297583</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C46" t="n">
         <v>272.7252466480447</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270378</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604742</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939106</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845994</v>
+        <v>5053973.894141731</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.915131541</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121343</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656665</v>
+        <v>8522705.957111143</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847354</v>
+        <v>9678949.978100954</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909075</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228719</v>
+        <v>11991438.02008055</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.3223419408</v>
+        <v>13147682.04107035</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610097</v>
+        <v>14303926.06206016</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800787</v>
+        <v>15460170.08304998</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.3110991478</v>
+        <v>16616414.1040398</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.974018217</v>
+        <v>17772658.12502962</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>913048.3542411315</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411312</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411317</v>
       </c>
       <c r="E2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="F2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="G2" t="n">
+        <v>817831.1367976688</v>
+      </c>
+      <c r="H2" t="n">
         <v>817831.1367976691</v>
       </c>
-      <c r="F2" t="n">
-        <v>817831.1367976692</v>
-      </c>
-      <c r="G2" t="n">
-        <v>817831.136797669</v>
-      </c>
-      <c r="H2" t="n">
-        <v>817831.136797669</v>
-      </c>
       <c r="I2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976748</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976691</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367978184</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="M2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="N2" t="n">
+        <v>817831.1367976688</v>
+      </c>
+      <c r="O2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976686</v>
-      </c>
-      <c r="O2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.136797669</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101648.5408862316</v>
+        <v>101648.5408862317</v>
       </c>
       <c r="C4" t="n">
-        <v>101346.5898317504</v>
+        <v>101346.5898317505</v>
       </c>
       <c r="D4" t="n">
-        <v>101044.2291618174</v>
+        <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="F4" t="n">
+        <v>26356.19966309945</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="H4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="G4" t="n">
-        <v>26356.19966309948</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26356.19966309948</v>
-      </c>
       <c r="I4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966310028</v>
       </c>
       <c r="J4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.19966321384</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309947</v>
       </c>
     </row>
     <row r="5">
@@ -26530,46 +26530,46 @@
         <v>-1405906.1866451</v>
       </c>
       <c r="C6" t="n">
-        <v>639094.7644093807</v>
+        <v>639094.764409381</v>
       </c>
       <c r="D6" t="n">
-        <v>639397.1250793139</v>
+        <v>639397.1250793142</v>
       </c>
       <c r="E6" t="n">
         <v>652495.5371345696</v>
       </c>
       <c r="F6" t="n">
-        <v>652495.5371345697</v>
+        <v>652495.5371345694</v>
       </c>
       <c r="G6" t="n">
-        <v>652495.5371345695</v>
+        <v>652495.5371345694</v>
       </c>
       <c r="H6" t="n">
-        <v>652495.5371345695</v>
+        <v>652495.5371345696</v>
       </c>
       <c r="I6" t="n">
-        <v>652495.5371345695</v>
+        <v>652495.5371345745</v>
       </c>
       <c r="J6" t="n">
-        <v>32271.53713456949</v>
+        <v>32271.53713456943</v>
       </c>
       <c r="K6" t="n">
-        <v>652495.5371346045</v>
+        <v>652495.5371345691</v>
       </c>
       <c r="L6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="M6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="N6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="O6" t="n">
+        <v>652495.5371345694</v>
+      </c>
+      <c r="P6" t="n">
         <v>652495.5371345691</v>
-      </c>
-      <c r="M6" t="n">
-        <v>652495.5371345693</v>
-      </c>
-      <c r="N6" t="n">
-        <v>652495.5371345691</v>
-      </c>
-      <c r="O6" t="n">
-        <v>652495.5371345693</v>
-      </c>
-      <c r="P6" t="n">
-        <v>652495.5371345695</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573063</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27699,7 +27699,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27720,7 +27720,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T4" t="n">
-        <v>349.9327172413397</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
         <v>150.8146863564251</v>
@@ -27745,7 +27745,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573063</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27936,13 +27936,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6476277959926</v>
+        <v>227.6188561872211</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
         <v>400</v>
@@ -28036,13 +28036,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573063</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>388.0294482079482</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29720,61 +29720,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29783,10 +29783,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -34825,25 +34825,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1141.752258948505</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
-        <v>487.0496964782857</v>
+        <v>1200.884935219816</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
@@ -34852,7 +34852,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34995,7 +34995,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -35065,22 +35065,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1274.046399489921</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>694.2283834419726</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35232,13 +35232,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>31.19380758975518</v>
@@ -35299,25 +35299,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1572.056995534661</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
-        <v>919.3483666068121</v>
+        <v>1379.171816252742</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
@@ -35326,7 +35326,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35469,16 +35469,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19.22325579770342</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,34 +35536,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>1305.012882699114</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>21.63135028027094</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,19 +35773,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -35794,13 +35794,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1590.529135526399</v>
+        <v>1340.526259006015</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,34 +36010,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1192.268690568972</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1135.353904653609</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36250,19 +36250,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>883.3156734893178</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N20" t="n">
-        <v>1620.580889925233</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36484,34 +36484,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>1228.661067507428</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1558.14567116316</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>1.01973648380601e-10</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36730,22 +36730,22 @@
         <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1192.268690568972</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1590.529135526397</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36961,10 +36961,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.989403955261</v>
+        <v>1030.644788587535</v>
       </c>
       <c r="L29" t="n">
         <v>926.861336683417</v>
@@ -36976,16 +36976,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
-        <v>1565.857906464561</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717436</v>
+        <v>422.1086156716381</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603012742</v>
+        <v>698.5532603011687</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244053964</v>
+        <v>956.4197244052909</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421646097</v>
+        <v>883.1950421645042</v>
       </c>
       <c r="N30" t="n">
-        <v>951.945785957817</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464311538</v>
+        <v>989.1444464310483</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799864568</v>
+        <v>713.7510799863513</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417014</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37195,13 +37195,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L32" t="n">
         <v>926.861336683417</v>
@@ -37210,16 +37210,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>1435.033553241815</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1758.960121218432</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37432,22 +37432,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>1435.033553241815</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37456,10 +37456,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>1064.718786635528</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,19 +37669,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>956.2049222650876</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1340.526259006015</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,31 +37906,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1192.268690568972</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,22 +38143,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.056995534661</v>
+        <v>1386.684786329348</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
